--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113D01A7-6410-B24B-842B-F8D27AF30476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062B8C1-E0B3-7F4D-A265-D5D7BFA72157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6352,22 +6352,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>20.49</c:v>
+                  <c:v>20.48</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.01</c:v>
+                  <c:v>30.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.150000000000006</c:v>
+                  <c:v>65.680000000000007</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>147.86000000000001</c:v>
+                  <c:v>138.87</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310.89</c:v>
+                  <c:v>300.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>750.9</c:v>
+                  <c:v>692.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6465,22 +6465,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.61</c:v>
+                  <c:v>12.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.85</c:v>
+                  <c:v>28.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>62.71</c:v>
+                  <c:v>61.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>131.86000000000001</c:v>
+                  <c:v>130.21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>276.77999999999997</c:v>
+                  <c:v>283.36</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>711.61</c:v>
+                  <c:v>656.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6578,22 +6578,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.04</c:v>
+                  <c:v>13.36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33.409999999999997</c:v>
+                  <c:v>30.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67.72</c:v>
+                  <c:v>60.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140.61000000000001</c:v>
+                  <c:v>124.34</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>305.94</c:v>
+                  <c:v>270.62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>712.56</c:v>
+                  <c:v>627.04999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6691,22 +6691,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>13.06</c:v>
+                  <c:v>12.34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29.99</c:v>
+                  <c:v>28.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.67</c:v>
+                  <c:v>55.91</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120.41</c:v>
+                  <c:v>112.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>266.62</c:v>
+                  <c:v>251.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>613.41999999999996</c:v>
+                  <c:v>583.45000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,8 +6757,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7098,19 +7099,19 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7208,22 +7209,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>63</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7321,22 +7322,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7434,22 +7435,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>65</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>57</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7500,8 +7501,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -7834,22 +7836,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>589</c:v>
+                  <c:v>545</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>782</c:v>
+                  <c:v>797</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>767</c:v>
+                  <c:v>806</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>698</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>581</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>424</c:v>
+                  <c:v>585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7947,22 +7949,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>825</c:v>
+                  <c:v>823</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1154</c:v>
+                  <c:v>1179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1109</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1003</c:v>
+                  <c:v>1137</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>685</c:v>
+                  <c:v>888</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>448</c:v>
+                  <c:v>682</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8060,22 +8062,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>819</c:v>
+                  <c:v>840</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>914</c:v>
+                  <c:v>1153</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>962</c:v>
+                  <c:v>1383</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>738</c:v>
+                  <c:v>1506</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>645</c:v>
+                  <c:v>1063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>486</c:v>
+                  <c:v>796</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8173,22 +8175,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1009</c:v>
+                  <c:v>1004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1381</c:v>
+                  <c:v>1792</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1575</c:v>
+                  <c:v>2243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1713</c:v>
+                  <c:v>2361</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1017</c:v>
+                  <c:v>1341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>858</c:v>
+                  <c:v>914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8239,8 +8241,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -8577,22 +8580,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>84</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8690,22 +8693,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>111</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>118</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8803,22 +8806,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>103</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8916,22 +8919,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>130</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>124</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>113</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8982,8 +8985,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -27869,7 +27873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78717FEF-7D4F-0E48-A95B-BE4CC901AD51}">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="87" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -29810,10 +29814,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE93499-CFB8-CF46-B176-4C0F0AC04714}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="114" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29854,22 +29858,22 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>589</v>
+        <v>545</v>
       </c>
       <c r="C3">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="D3">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="E3">
-        <v>698</v>
+        <v>775</v>
       </c>
       <c r="F3">
-        <v>581</v>
+        <v>700</v>
       </c>
       <c r="G3">
-        <v>424</v>
+        <v>585</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -29877,22 +29881,22 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C4">
-        <v>1154</v>
+        <v>1179</v>
       </c>
       <c r="D4">
-        <v>1109</v>
+        <v>1189</v>
       </c>
       <c r="E4">
-        <v>1003</v>
+        <v>1137</v>
       </c>
       <c r="F4">
-        <v>685</v>
+        <v>888</v>
       </c>
       <c r="G4">
-        <v>448</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -29900,22 +29904,22 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>819</v>
+        <v>840</v>
       </c>
       <c r="C5">
-        <v>914</v>
+        <v>1153</v>
       </c>
       <c r="D5">
-        <v>962</v>
+        <v>1383</v>
       </c>
       <c r="E5">
-        <v>738</v>
+        <v>1506</v>
       </c>
       <c r="F5">
-        <v>645</v>
+        <v>1063</v>
       </c>
       <c r="G5">
-        <v>486</v>
+        <v>796</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -29923,22 +29927,22 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C6">
-        <v>1381</v>
+        <v>1792</v>
       </c>
       <c r="D6">
-        <v>1575</v>
+        <v>2243</v>
       </c>
       <c r="E6">
-        <v>1713</v>
+        <v>2361</v>
       </c>
       <c r="F6">
-        <v>1017</v>
+        <v>1341</v>
       </c>
       <c r="G6">
-        <v>858</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -29974,22 +29978,22 @@
         <v>4</v>
       </c>
       <c r="B30">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D30">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E30">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F30">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G30">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -29997,22 +30001,22 @@
         <v>5</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C31">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D31">
         <v>109</v>
       </c>
       <c r="E31">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F31">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G31">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -30020,22 +30024,22 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C32">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D32">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E32">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F32">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -30043,22 +30047,22 @@
         <v>7</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C33">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D33">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E33">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F33">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G33">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -30097,19 +30101,19 @@
         <v>49</v>
       </c>
       <c r="C52">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D52">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="F52">
+        <v>50</v>
+      </c>
+      <c r="G52">
         <v>41</v>
-      </c>
-      <c r="G52">
-        <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -30117,22 +30121,22 @@
         <v>5</v>
       </c>
       <c r="B53">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C53">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D53">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E53">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F53">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G53">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -30140,22 +30144,22 @@
         <v>6</v>
       </c>
       <c r="B54">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C54">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D54">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E54">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F54">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G54">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -30163,22 +30167,22 @@
         <v>7</v>
       </c>
       <c r="B55">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C55">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D55">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E55">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F55">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G55">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -30214,22 +30218,22 @@
         <v>4</v>
       </c>
       <c r="B59">
-        <v>20.49</v>
+        <v>20.48</v>
       </c>
       <c r="C59">
-        <v>33.01</v>
+        <v>30.16</v>
       </c>
       <c r="D59">
-        <v>68.150000000000006</v>
+        <v>65.680000000000007</v>
       </c>
       <c r="E59">
-        <v>147.86000000000001</v>
+        <v>138.87</v>
       </c>
       <c r="F59">
-        <v>310.89</v>
+        <v>300.60000000000002</v>
       </c>
       <c r="G59">
-        <v>750.9</v>
+        <v>692.76</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -30237,22 +30241,22 @@
         <v>5</v>
       </c>
       <c r="B60">
-        <v>13.61</v>
+        <v>12.75</v>
       </c>
       <c r="C60">
-        <v>27.85</v>
+        <v>28.76</v>
       </c>
       <c r="D60">
-        <v>62.71</v>
+        <v>61.4</v>
       </c>
       <c r="E60">
-        <v>131.86000000000001</v>
+        <v>130.21</v>
       </c>
       <c r="F60">
-        <v>276.77999999999997</v>
+        <v>283.36</v>
       </c>
       <c r="G60">
-        <v>711.61</v>
+        <v>656.29</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -30260,22 +30264,22 @@
         <v>6</v>
       </c>
       <c r="B61">
-        <v>14.04</v>
+        <v>13.36</v>
       </c>
       <c r="C61">
-        <v>33.409999999999997</v>
+        <v>30.58</v>
       </c>
       <c r="D61">
-        <v>67.72</v>
+        <v>60.33</v>
       </c>
       <c r="E61">
-        <v>140.61000000000001</v>
+        <v>124.34</v>
       </c>
       <c r="F61">
-        <v>305.94</v>
+        <v>270.62</v>
       </c>
       <c r="G61">
-        <v>712.56</v>
+        <v>627.04999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -30283,22 +30287,22 @@
         <v>7</v>
       </c>
       <c r="B62">
-        <v>13.06</v>
+        <v>12.34</v>
       </c>
       <c r="C62">
-        <v>29.99</v>
+        <v>28.08</v>
       </c>
       <c r="D62">
-        <v>59.67</v>
+        <v>55.91</v>
       </c>
       <c r="E62">
-        <v>120.41</v>
+        <v>112.98</v>
       </c>
       <c r="F62">
-        <v>266.62</v>
+        <v>251.4</v>
       </c>
       <c r="G62">
-        <v>613.41999999999996</v>
+        <v>583.45000000000005</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -30333,116 +30337,92 @@
       <c r="A71" t="s">
         <v>4</v>
       </c>
+      <c r="B71">
+        <v>0.18</v>
+      </c>
+      <c r="C71">
+        <v>13.81</v>
+      </c>
+      <c r="D71">
+        <v>386.6</v>
+      </c>
+      <c r="E71">
+        <v>834.75</v>
+      </c>
+      <c r="F71">
+        <v>2243.7399999999998</v>
+      </c>
+      <c r="G71">
+        <v>7393.52</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>5</v>
       </c>
+      <c r="B72">
+        <v>0.03</v>
+      </c>
+      <c r="C72">
+        <v>146.08000000000001</v>
+      </c>
+      <c r="D72">
+        <v>345.9</v>
+      </c>
+      <c r="E72">
+        <v>744.16</v>
+      </c>
+      <c r="F72">
+        <v>2066.21</v>
+      </c>
+      <c r="G72">
+        <v>2872.5</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>6</v>
       </c>
+      <c r="B73">
+        <v>0.13</v>
+      </c>
+      <c r="C73">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D73">
+        <v>15.43</v>
+      </c>
+      <c r="E73">
+        <v>124.92</v>
+      </c>
+      <c r="F73">
+        <v>1030.5</v>
+      </c>
+      <c r="G73">
+        <v>7057.12</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>2</v>
-      </c>
-      <c r="D81">
-        <v>4</v>
-      </c>
-      <c r="E81">
-        <v>8</v>
-      </c>
-      <c r="F81">
-        <v>16</v>
-      </c>
-      <c r="G81">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>8</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88">
-        <v>2</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88">
-        <v>8</v>
-      </c>
-      <c r="F88">
-        <v>16</v>
-      </c>
-      <c r="G88">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
-        <v>7</v>
+      <c r="B74">
+        <v>0.13</v>
+      </c>
+      <c r="C74">
+        <v>1.07</v>
+      </c>
+      <c r="D74">
+        <v>12.37</v>
+      </c>
+      <c r="E74">
+        <v>138.03</v>
+      </c>
+      <c r="F74">
+        <v>824.26</v>
+      </c>
+      <c r="G74">
+        <v>3655.07</v>
       </c>
     </row>
   </sheetData>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1062B8C1-E0B3-7F4D-A265-D5D7BFA72157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041017C-48F3-BA41-B9A4-5D1DCC4B824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6221,6 +6221,598 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>中断频率随负载变化图</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$X$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$49:$AB$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$50:$AB$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.46779999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25640000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A93B-194F-BC42-CEB6DF17D4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$X$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$49:$AB$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$51:$AB$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.4158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A93B-194F-BC42-CEB6DF17D4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_ipc!$X$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>并发 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$49:$AB$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_ipc!$Y$52:$AB$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.34939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A93B-194F-BC42-CEB6DF17D4C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1396637231"/>
+        <c:axId val="972811584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1396637231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972811584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="972811584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1396637231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
               <a:t>Socket</a:t>
             </a:r>
@@ -6932,7 +7524,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -7676,7 +8268,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -8416,7 +9008,757 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>用户态中断频率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6208729582278979E-2"/>
+          <c:y val="0.1731895416218481"/>
+          <c:w val="0.93393895555058837"/>
+          <c:h val="0.77101603530606422"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$AM$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>up_server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$16:$AS$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50029999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3DEB-5C48-A80A-F4C64B20C66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$AM$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>up_client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$17:$AS$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3399999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1899999999999998E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3DEB-5C48-A80A-F4C64B20C66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$AM$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smp_server</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$18:$AS$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50170000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44230000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42559999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42149999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3DEB-5C48-A80A-F4C64B20C66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>qemu_ipc!$AM$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>smp_client</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>qemu_ipc!$AN$19:$AS$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50049999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10290000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1065</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3DEB-5C48-A80A-F4C64B20C66B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="929224688"/>
+        <c:axId val="929225504"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="929224688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929225504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="929225504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="929224688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -9099,756 +10441,6 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>用户态中断频率</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.6208729582278979E-2"/>
-          <c:y val="0.1731895416218481"/>
-          <c:w val="0.93393895555058837"/>
-          <c:h val="0.77101603530606422"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>qemu_ipc!$AM$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>up_server</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$16:$AS$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50029999999999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DEB-5C48-A80A-F4C64B20C66B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>qemu_ipc!$AM$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>up_client</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$17:$AS$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50049999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12559999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.3399999999999998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1899999999999998E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3DEB-5C48-A80A-F4C64B20C66B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>qemu_ipc!$AM$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>smp_server</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$18:$AS$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50170000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49690000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.44230000000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.42559999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42149999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3DEB-5C48-A80A-F4C64B20C66B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>qemu_ipc!$AM$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>smp_client</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="3"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
-              </a:effectLst>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$15:$AS$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>qemu_ipc!$AN$19:$AS$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.50049999999999994</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.31040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10290000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1065</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3DEB-5C48-A80A-F4C64B20C66B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="929224688"/>
-        <c:axId val="929225504"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="929224688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:noFill/>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="929225504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="929225504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="929224688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -15656,6 +16248,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21855,6 +22487,544 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -26710,6 +27880,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63501</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>166511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>472723</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF2CEF91-2178-7C4E-AAFD-9C16589D7BC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27161,8 +28367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE31C07-FDF3-8D4E-AAE0-9812488F355C}">
   <dimension ref="A2:BA42"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView topLeftCell="S21" zoomScale="50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM38" sqref="AM38:AQ42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28467,10 +29673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
-  <dimension ref="A2:T118"/>
+  <dimension ref="A2:AB118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="75" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="L24" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29087,18 +30293,81 @@
         <v>6946</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:28">
       <c r="B49" s="1"/>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>3</v>
+      </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="50" spans="1:28">
+      <c r="X50" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y50">
+        <v>0.46779999999999999</v>
+      </c>
+      <c r="Z50">
+        <v>0.25640000000000002</v>
+      </c>
+      <c r="AA50">
+        <v>0.11269999999999999</v>
+      </c>
+      <c r="AB50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
+      <c r="X51" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y51">
+        <v>0.4158</v>
+      </c>
+      <c r="Z51">
+        <v>0.18029999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
+      <c r="X52" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y52">
+        <v>0.34939999999999999</v>
+      </c>
+      <c r="Z52">
+        <v>0.12809999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" t="s">
         <v>21</v>
       </c>
       <c r="M59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:28">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -29151,7 +30420,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:28">
       <c r="A61" t="s">
         <v>1</v>
       </c>
@@ -29204,7 +30473,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:28">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -29257,7 +30526,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:28">
       <c r="A63" t="s">
         <v>3</v>
       </c>
@@ -29310,7 +30579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:28">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -29816,7 +31085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE93499-CFB8-CF46-B176-4C0F0AC04714}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5041017C-48F3-BA41-B9A4-5D1DCC4B824A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC5E0F-55FF-A047-B6E7-E8606EDC49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -6604,8 +6604,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -29079,8 +29080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78717FEF-7D4F-0E48-A95B-BE4CC901AD51}">
   <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="87" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A2" zoomScale="87" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29675,7 +29676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
   <dimension ref="A2:AB118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L24" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="L24" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="U47" sqref="U47"/>
     </sheetView>
   </sheetViews>
@@ -31085,8 +31086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE93499-CFB8-CF46-B176-4C0F0AC04714}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AC5E0F-55FF-A047-B6E7-E8606EDC49A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93FA73-EDD4-1647-AAF0-94C5CD2B34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="3" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="4" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
     <sheet name="qemu_net" sheetId="2" r:id="rId2"/>
     <sheet name="fpga_ipc" sheetId="3" r:id="rId3"/>
     <sheet name="fpga_net" sheetId="4" r:id="rId4"/>
+    <sheet name="fpga_syscall" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +224,10 @@
   </si>
   <si>
     <t>Socket Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29676,8 +29681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
   <dimension ref="A2:AB118"/>
   <sheetViews>
-    <sheetView topLeftCell="L24" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+    <sheetView zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -31086,7 +31091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE93499-CFB8-CF46-B176-4C0F0AC04714}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -31700,4 +31705,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948DF7F-45BB-DB43-912D-C43B27C012A9}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>8</v>
+      </c>
+      <c r="F1">
+        <v>16</v>
+      </c>
+      <c r="G1">
+        <v>32</v>
+      </c>
+      <c r="H1">
+        <v>64</v>
+      </c>
+      <c r="I1">
+        <v>128</v>
+      </c>
+      <c r="J1">
+        <v>256</v>
+      </c>
+      <c r="K1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC93FA73-EDD4-1647-AAF0-94C5CD2B34F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7671DF-BE55-6B4D-AE4C-19BF7B604A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" activeTab="4" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26760" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,7 +227,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sync</t>
+    <t>页框数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步所占用周期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核异步平均周期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多核异步所占用周期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步陷入次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核异步陷入次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多核异步陷入次数</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核异步陷入频率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>多核异步陷入频率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_up_fp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast_reply_recv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast_call_handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast_call_wait_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fast_reply_recv_wait_lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fast_call_context switch </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">fast_reply_recv_context switch </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,7 +295,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000%"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,6 +339,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,12 +372,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,8 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -29679,15 +29765,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
-  <dimension ref="A2:AB118"/>
+  <dimension ref="A2:AB148"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="125" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
@@ -31073,6 +31159,62 @@
       </c>
       <c r="D118">
         <v>1358</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>59</v>
+      </c>
+      <c r="B139">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>58</v>
+      </c>
+      <c r="B140">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>62</v>
+      </c>
+      <c r="B146">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>57</v>
+      </c>
+      <c r="B148">
+        <v>1123</v>
       </c>
     </row>
   </sheetData>
@@ -31709,59 +31851,318 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948DF7F-45BB-DB43-912D-C43B27C012A9}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
+    <row r="2" spans="1:10">
+      <c r="A2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="E1">
+      <c r="D2" s="6">
         <v>8</v>
       </c>
-      <c r="F1">
+      <c r="E2" s="6">
         <v>16</v>
       </c>
-      <c r="G1">
+      <c r="F2" s="6">
         <v>32</v>
       </c>
-      <c r="H1">
+      <c r="G2" s="6">
         <v>64</v>
       </c>
-      <c r="I1">
+      <c r="H2" s="6">
         <v>128</v>
       </c>
-      <c r="J1">
+      <c r="I2" s="6">
         <v>256</v>
       </c>
-      <c r="K1">
+      <c r="J2" s="6">
         <v>512</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>8443</v>
+      </c>
+      <c r="C3" s="6">
+        <v>8439</v>
+      </c>
+      <c r="D3" s="6">
+        <v>8409</v>
+      </c>
+      <c r="E3" s="6">
+        <v>8381</v>
+      </c>
+      <c r="F3" s="6">
+        <v>8318</v>
+      </c>
+      <c r="G3" s="6">
+        <v>8358</v>
+      </c>
+      <c r="H3" s="6">
+        <v>8309</v>
+      </c>
+      <c r="I3" s="6">
+        <v>8421</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8449</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>0</v>
+    <row r="4" spans="1:10">
+      <c r="A4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6">
+        <v>23670</v>
+      </c>
+      <c r="C4" s="6">
+        <v>12579</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8111</v>
+      </c>
+      <c r="E4" s="6">
+        <v>7309</v>
+      </c>
+      <c r="F4" s="6">
+        <v>7069</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6913</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6847</v>
+      </c>
+      <c r="I4" s="6">
+        <v>6646</v>
+      </c>
+      <c r="J4" s="6">
+        <v>6614</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>47</v>
+    <row r="5" spans="1:10">
+      <c r="A5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>23161</v>
+      </c>
+      <c r="C5" s="6">
+        <v>12346</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7864</v>
+      </c>
+      <c r="E5" s="6">
+        <v>7170</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6871</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6734</v>
+      </c>
+      <c r="H5" s="6">
+        <v>6674</v>
+      </c>
+      <c r="I5" s="6">
+        <v>6527</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6459</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6">
+        <v>80</v>
+      </c>
+      <c r="D6" s="6">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6">
+        <v>320</v>
+      </c>
+      <c r="F6" s="6">
+        <v>640</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1280</v>
+      </c>
+      <c r="H6" s="6">
+        <v>2560</v>
+      </c>
+      <c r="I6" s="6">
+        <v>5120</v>
+      </c>
+      <c r="J6" s="6">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21</v>
+      </c>
+      <c r="C7" s="6">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6">
+        <v>23</v>
+      </c>
+      <c r="E7" s="6">
+        <v>40</v>
+      </c>
+      <c r="F7" s="6">
+        <v>77</v>
+      </c>
+      <c r="G7" s="6">
+        <v>149</v>
+      </c>
+      <c r="H7" s="6">
+        <v>290</v>
+      </c>
+      <c r="I7" s="6">
+        <v>543</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>20</v>
+      </c>
+      <c r="C8" s="6">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6">
+        <v>24</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43</v>
+      </c>
+      <c r="F8" s="6">
+        <v>76</v>
+      </c>
+      <c r="G8" s="6">
+        <v>147</v>
+      </c>
+      <c r="H8" s="6">
+        <v>287</v>
+      </c>
+      <c r="I8" s="6">
+        <v>541</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="7">
+        <f>B7/B6</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:J9" si="0">C7/C6</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1203125</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11640625</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11328125</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10605468749999999</v>
+      </c>
+      <c r="J9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1037109375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="7">
+        <f>B8/B6</f>
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" ref="C10:J10" si="1">C8/C6</f>
+        <v>0.25</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.13437499999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11874999999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.11484374999999999</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.112109375</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1056640625</v>
+      </c>
+      <c r="J10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.1025390625</v>
       </c>
     </row>
   </sheetData>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7671DF-BE55-6B4D-AE4C-19BF7B604A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71370FCD-7829-5343-83B8-E0DF1C68A033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26760" activeTab="2" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26760" activeTab="4" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="61">
   <si>
     <t>async-smp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,22 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页框数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步所占用周期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单核异步平均周期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多核异步所占用周期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>同步陷入次数</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -252,14 +236,6 @@
   </si>
   <si>
     <t>多核异步陷入次数</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>单核异步陷入频率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>多核异步陷入频率</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -289,6 +265,22 @@
   <si>
     <t xml:space="preserve">fast_reply_recv_context switch </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并发度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>async_up</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>async_smp</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -393,16 +385,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
@@ -10533,6 +10525,1174 @@
         <a:p>
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN"/>
+              <a:t>每个请求完成的平均周期数</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_syscall!$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$20:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8141-4142-8619-7EDA6B90B0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_syscall!$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$21:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>22732</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6214</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8141-4142-8619-7EDA6B90B0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_syscall!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$22:$H$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>20079</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9614</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5406</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5293</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5286</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8141-4142-8619-7EDA6B90B0F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="703768176"/>
+        <c:axId val="703769824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="703768176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703769824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="703769824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="703768176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>异步系统调用陷入频率</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_syscall!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_up</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$26:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6562499999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6172000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5194999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5194999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4F85-D242-8ED7-E0FC5E1A9E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>fpga_syscall!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>async_smp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$19:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>fpga_syscall!$B$27:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14374999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.1250000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9218999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0233999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3789E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2030999999999997E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4F85-D242-8ED7-E0FC5E1A9E0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="693596352"/>
+        <c:axId val="693598032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="693596352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693598032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="693598032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693596352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -16380,6 +17540,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -23117,6 +24357,1082 @@
 </file>
 
 <file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -28160,6 +30476,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1041832</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>163477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350671</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>18955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B78E4A-BAC1-E646-9C4B-711F5B18AA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>159146</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47387</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>170598</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B91B22B-5F50-784F-90EB-87FFD68480C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -29767,7 +32160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6E50E1-FA69-4847-B614-76E5EFFC3D26}">
   <dimension ref="A2:AB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="125" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView topLeftCell="A89" zoomScale="125" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="M147" sqref="M147"/>
     </sheetView>
   </sheetViews>
@@ -31056,7 +33449,7 @@
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B109" t="s">
@@ -31067,7 +33460,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="2" t="s">
         <v>35</v>
       </c>
@@ -31079,7 +33472,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="6" t="s">
         <v>31</v>
       </c>
       <c r="B111" t="s">
@@ -31090,7 +33483,7 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="5"/>
+      <c r="A112" s="7"/>
       <c r="B112" t="s">
         <v>37</v>
       </c>
@@ -31099,7 +33492,7 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B113" t="s">
@@ -31110,7 +33503,7 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="4"/>
+      <c r="A114" s="6"/>
       <c r="B114" t="s">
         <v>39</v>
       </c>
@@ -31119,7 +33512,7 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="4"/>
+      <c r="A115" s="6"/>
       <c r="B115" t="s">
         <v>34</v>
       </c>
@@ -31128,7 +33521,7 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="4"/>
+      <c r="A116" s="6"/>
       <c r="B116" s="2" t="s">
         <v>38</v>
       </c>
@@ -31163,7 +33556,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B136">
         <v>14046</v>
@@ -31171,7 +33564,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B138">
         <v>352</v>
@@ -31179,7 +33572,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B139">
         <v>345</v>
@@ -31187,7 +33580,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B140">
         <v>749</v>
@@ -31195,7 +33588,7 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B146">
         <v>306</v>
@@ -31203,7 +33596,7 @@
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B147">
         <v>198</v>
@@ -31211,7 +33604,7 @@
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B148">
         <v>1123</v>
@@ -31851,322 +34244,417 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948DF7F-45BB-DB43-912D-C43B27C012A9}">
-  <dimension ref="A2:J10"/>
+  <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="134" workbookViewId="0">
+      <selection activeCell="U54" sqref="U54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:10">
-      <c r="A2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="6">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6">
-        <v>32</v>
-      </c>
-      <c r="G2" s="6">
-        <v>64</v>
-      </c>
-      <c r="H2" s="6">
-        <v>128</v>
-      </c>
-      <c r="I2" s="6">
-        <v>256</v>
-      </c>
-      <c r="J2" s="6">
-        <v>512</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="6">
-        <v>8443</v>
-      </c>
-      <c r="C3" s="6">
-        <v>8439</v>
-      </c>
-      <c r="D3" s="6">
-        <v>8409</v>
-      </c>
-      <c r="E3" s="6">
-        <v>8381</v>
-      </c>
-      <c r="F3" s="6">
-        <v>8318</v>
-      </c>
-      <c r="G3" s="6">
-        <v>8358</v>
-      </c>
-      <c r="H3" s="6">
-        <v>8309</v>
-      </c>
-      <c r="I3" s="6">
-        <v>8421</v>
-      </c>
-      <c r="J3" s="6">
-        <v>8449</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="6">
-        <v>23670</v>
-      </c>
-      <c r="C4" s="6">
-        <v>12579</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8111</v>
-      </c>
-      <c r="E4" s="6">
-        <v>7309</v>
-      </c>
-      <c r="F4" s="6">
-        <v>7069</v>
-      </c>
-      <c r="G4" s="6">
-        <v>6913</v>
-      </c>
-      <c r="H4" s="6">
-        <v>6847</v>
-      </c>
-      <c r="I4" s="6">
-        <v>6646</v>
-      </c>
-      <c r="J4" s="6">
-        <v>6614</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="6">
-        <v>23161</v>
-      </c>
-      <c r="C5" s="6">
-        <v>12346</v>
-      </c>
-      <c r="D5" s="6">
-        <v>7864</v>
-      </c>
-      <c r="E5" s="6">
-        <v>7170</v>
-      </c>
-      <c r="F5" s="6">
-        <v>6871</v>
-      </c>
-      <c r="G5" s="6">
-        <v>6734</v>
-      </c>
-      <c r="H5" s="6">
-        <v>6674</v>
-      </c>
-      <c r="I5" s="6">
-        <v>6527</v>
-      </c>
-      <c r="J5" s="6">
-        <v>6459</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="6">
-        <v>40</v>
-      </c>
-      <c r="C6" s="6">
-        <v>80</v>
-      </c>
-      <c r="D6" s="6">
-        <v>160</v>
-      </c>
-      <c r="E6" s="6">
-        <v>320</v>
-      </c>
-      <c r="F6" s="6">
-        <v>640</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1280</v>
-      </c>
-      <c r="H6" s="6">
-        <v>2560</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5120</v>
-      </c>
-      <c r="J6" s="6">
-        <v>10240</v>
-      </c>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="6">
-        <v>21</v>
-      </c>
-      <c r="C7" s="6">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6">
-        <v>40</v>
-      </c>
-      <c r="F7" s="6">
-        <v>77</v>
-      </c>
-      <c r="G7" s="6">
-        <v>149</v>
-      </c>
-      <c r="H7" s="6">
-        <v>290</v>
-      </c>
-      <c r="I7" s="6">
-        <v>543</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1062</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="6">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6">
-        <v>43</v>
-      </c>
-      <c r="F8" s="6">
-        <v>76</v>
-      </c>
-      <c r="G8" s="6">
-        <v>147</v>
-      </c>
-      <c r="H8" s="6">
-        <v>287</v>
-      </c>
-      <c r="I8" s="6">
-        <v>541</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1050</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="7">
-        <f>B7/B6</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="C9" s="7">
-        <f t="shared" ref="C9:J9" si="0">C7/C6</f>
-        <v>0.25</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.14374999999999999</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.125</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1203125</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11640625</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11328125</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.10605468749999999</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1037109375</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7">
-        <f>B8/B6</f>
+      <c r="A10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="4">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4">
+        <v>16</v>
+      </c>
+      <c r="D19" s="4">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4">
+        <v>64</v>
+      </c>
+      <c r="F19" s="4">
+        <v>128</v>
+      </c>
+      <c r="G19" s="4">
+        <v>256</v>
+      </c>
+      <c r="H19" s="4">
+        <v>512</v>
+      </c>
+      <c r="J19" s="4">
+        <v>2</v>
+      </c>
+      <c r="K19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="E20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="G20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="H20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="J20" s="4">
+        <v>8172</v>
+      </c>
+      <c r="K20" s="4">
+        <v>8172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="4">
+        <v>22732</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12314</v>
+      </c>
+      <c r="D21" s="4">
+        <v>7121</v>
+      </c>
+      <c r="E21" s="4">
+        <v>6234</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6214</v>
+      </c>
+      <c r="G21" s="4">
+        <v>6106</v>
+      </c>
+      <c r="H21" s="4">
+        <v>6136</v>
+      </c>
+      <c r="J21" s="4">
+        <v>85219</v>
+      </c>
+      <c r="K21" s="4">
+        <v>43579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="4">
+        <v>20079</v>
+      </c>
+      <c r="C22" s="4">
+        <v>9614</v>
+      </c>
+      <c r="D22" s="4">
+        <v>5684</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5406</v>
+      </c>
+      <c r="F22" s="4">
+        <v>5404</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5293</v>
+      </c>
+      <c r="H22" s="4">
+        <v>5286</v>
+      </c>
+      <c r="J22" s="4">
+        <v>79733</v>
+      </c>
+      <c r="K22" s="4">
+        <v>40150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4">
+        <v>160</v>
+      </c>
+      <c r="C23" s="4">
+        <v>320</v>
+      </c>
+      <c r="D23" s="4">
+        <v>640</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1280</v>
+      </c>
+      <c r="F23" s="4">
+        <v>2560</v>
+      </c>
+      <c r="G23" s="4">
+        <v>5120</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10240</v>
+      </c>
+      <c r="J23" s="4">
+        <v>40</v>
+      </c>
+      <c r="K23" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="4">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>20</v>
+      </c>
+      <c r="D24" s="4">
+        <v>20</v>
+      </c>
+      <c r="E24" s="4">
+        <v>34</v>
+      </c>
+      <c r="F24" s="4">
+        <v>67</v>
+      </c>
+      <c r="G24" s="4">
+        <v>129</v>
+      </c>
+      <c r="H24" s="4">
+        <v>258</v>
+      </c>
+      <c r="J24" s="4">
+        <v>20</v>
+      </c>
+      <c r="K24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="4">
+        <v>23</v>
+      </c>
+      <c r="C25" s="4">
+        <v>26</v>
+      </c>
+      <c r="D25" s="4">
+        <v>48</v>
+      </c>
+      <c r="E25" s="4">
+        <v>63</v>
+      </c>
+      <c r="F25" s="4">
+        <v>103</v>
+      </c>
+      <c r="G25" s="4">
+        <v>173</v>
+      </c>
+      <c r="H25" s="4">
+        <v>328</v>
+      </c>
+      <c r="J25" s="4">
+        <v>20</v>
+      </c>
+      <c r="K25" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.125</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3.125E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>2.6562499999999999E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2.6172000000000001E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>2.5194999999999999E-2</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2.5194999999999999E-2</v>
+      </c>
+      <c r="J26" s="5">
         <v>0.5</v>
       </c>
-      <c r="C10" s="7">
-        <f t="shared" ref="C10:J10" si="1">C8/C6</f>
+      <c r="K26" s="5">
         <v>0.25</v>
       </c>
-      <c r="D10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="E10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.13437499999999999</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.11874999999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.11484374999999999</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.112109375</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1056640625</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.1025390625</v>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.14374999999999999</v>
+      </c>
+      <c r="C27" s="5">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>4.9218999999999999E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>4.0233999999999999E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>3.3789E-2</v>
+      </c>
+      <c r="H27" s="5">
+        <v>3.2030999999999997E-2</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.27500000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3322B2FA-40F4-A842-AF1C-F13EC088F465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B7F8E-907C-9041-8AD8-2A0AE2CD3679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="26760" activeTab="7" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -13849,8 +13849,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -13961,7 +13962,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="75000"/>
@@ -41997,16 +41998,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2247455</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>384170</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>192474</xdr:rowOff>
+      <xdr:rowOff>183204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>786189</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600788</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>171348</xdr:rowOff>
+      <xdr:rowOff>162078</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42038,16 +42039,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>720422</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>60173</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314022</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>199873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>337154</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>162680</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>756254</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>99180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42076,16 +42077,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>63651</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>4763</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>818102</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>494543</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>94570</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>165651</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>119638</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46382,8 +46383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DFBF5B-8F6E-8045-8F81-355583BCEC4F}">
   <dimension ref="A2:T148"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="126" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+    <sheetView zoomScale="137" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46952,8 +46953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CC7230-6B12-8645-B731-B2F864FDB1F1}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -47428,7 +47429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A15DDD4-99DA-0A45-8092-0FE13BBCA208}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="134" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="130" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110B7F8E-907C-9041-8AD8-2A0AE2CD3679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCE6FF-DD94-714B-B0F7-CD7044030AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -11907,10 +11907,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$3:$T$3</c:f>
+              <c:f>'fpga_ipc (2)'!$N$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11928,19 +11928,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$4:$T$4</c:f>
+              <c:f>'fpga_ipc (2)'!$N$4:$V$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -11958,9 +11955,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.1800000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12026,10 +12020,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$3:$T$3</c:f>
+              <c:f>'fpga_ipc (2)'!$N$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12047,19 +12041,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$5:$T$5</c:f>
+              <c:f>'fpga_ipc (2)'!$N$5:$V$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12077,9 +12068,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.2000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6199999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12145,10 +12133,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$3:$T$3</c:f>
+              <c:f>'fpga_ipc (2)'!$N$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12166,19 +12154,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$6:$T$6</c:f>
+              <c:f>'fpga_ipc (2)'!$N$6:$V$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12196,9 +12181,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.16850000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.19489999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12264,10 +12246,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$3:$T$3</c:f>
+              <c:f>'fpga_ipc (2)'!$N$3:$V$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12285,19 +12267,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$N$7:$T$7</c:f>
+              <c:f>'fpga_ipc (2)'!$N$7:$V$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -12315,9 +12294,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3.5900000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8100000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13151,6 +13127,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>IPC</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>的平均开销</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13239,10 +13243,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$3:$I$3</c:f>
+              <c:f>'fpga_ipc (2)'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13260,22 +13264,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$4:$I$4</c:f>
+              <c:f>'fpga_ipc (2)'!$B$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10559</c:v>
                 </c:pt>
@@ -13293,12 +13291,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1722</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1726</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1709</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13364,10 +13356,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$3:$I$3</c:f>
+              <c:f>'fpga_ipc (2)'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13385,22 +13377,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$5:$I$5</c:f>
+              <c:f>'fpga_ipc (2)'!$B$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>10359</c:v>
                 </c:pt>
@@ -13418,12 +13404,6 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1477</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1593</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1628</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13489,10 +13469,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$3:$I$3</c:f>
+              <c:f>'fpga_ipc (2)'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13510,22 +13490,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$6:$I$6</c:f>
+              <c:f>'fpga_ipc (2)'!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>8077</c:v>
                 </c:pt>
@@ -13542,12 +13516,6 @@
                   <c:v>8077</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8077</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>8077</c:v>
                 </c:pt>
               </c:numCache>
@@ -13614,10 +13582,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$3:$I$3</c:f>
+              <c:f>'fpga_ipc (2)'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13635,22 +13603,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$7:$I$7</c:f>
+              <c:f>'fpga_ipc (2)'!$B$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3027</c:v>
                 </c:pt>
@@ -13667,12 +13629,6 @@
                   <c:v>3027</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3027</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>3027</c:v>
                 </c:pt>
               </c:numCache>
@@ -13739,10 +13695,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$3:$I$3</c:f>
+              <c:f>'fpga_ipc (2)'!$B$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -13760,22 +13716,16 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'fpga_ipc (2)'!$B$8:$I$8</c:f>
+              <c:f>'fpga_ipc (2)'!$B$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>19430</c:v>
                 </c:pt>
@@ -13792,12 +13742,6 @@
                   <c:v>19430</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19430</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19430</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>19430</c:v>
                 </c:pt>
               </c:numCache>
@@ -41999,13 +41943,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>384170</xdr:colOff>
+      <xdr:colOff>384169</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>183204</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>600788</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>129780</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>162078</xdr:rowOff>
     </xdr:to>
@@ -42039,16 +41983,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314022</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>199873</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654529</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>172264</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>756254</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>99180</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>588985</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>138043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -42083,10 +42027,10 @@
       <xdr:rowOff>76544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>165651</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>119638</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>478551</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>138043</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -46381,10 +46325,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DFBF5B-8F6E-8045-8F81-355583BCEC4F}">
-  <dimension ref="A2:T148"/>
+  <dimension ref="A2:V148"/>
   <sheetViews>
-    <sheetView zoomScale="137" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="137" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46394,7 +46338,7 @@
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -46402,7 +46346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -46424,10 +46368,10 @@
       <c r="G3">
         <v>32</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>64</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>128</v>
       </c>
       <c r="M3" t="s">
@@ -46451,11 +46395,8 @@
       <c r="S3">
         <v>32</v>
       </c>
-      <c r="T3">
-        <v>64</v>
-      </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -46477,10 +46418,10 @@
       <c r="G4">
         <v>1722</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>1726</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1709</v>
       </c>
       <c r="M4" t="s">
@@ -46504,11 +46445,8 @@
       <c r="S4">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="T4">
-        <v>1.6E-2</v>
-      </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -46530,10 +46468,10 @@
       <c r="G5">
         <v>1477</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>1593</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1628</v>
       </c>
       <c r="M5" t="s">
@@ -46557,11 +46495,8 @@
       <c r="S5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="T5">
-        <v>1.6199999999999999E-2</v>
-      </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -46583,12 +46518,12 @@
       <c r="G6">
         <v>8077</v>
       </c>
-      <c r="H6">
-        <v>8077</v>
-      </c>
       <c r="I6">
         <v>8077</v>
       </c>
+      <c r="J6">
+        <v>8077</v>
+      </c>
       <c r="M6" t="s">
         <v>17</v>
       </c>
@@ -46610,11 +46545,8 @@
       <c r="S6">
         <v>0.16850000000000001</v>
       </c>
-      <c r="T6">
-        <v>0.19489999999999999</v>
-      </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -46636,12 +46568,12 @@
       <c r="G7">
         <v>3027</v>
       </c>
-      <c r="H7">
-        <v>3027</v>
-      </c>
       <c r="I7">
         <v>3027</v>
       </c>
+      <c r="J7">
+        <v>3027</v>
+      </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
@@ -46663,11 +46595,8 @@
       <c r="S7">
         <v>3.5900000000000001E-2</v>
       </c>
-      <c r="T7">
-        <v>1.8100000000000002E-2</v>
-      </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -46689,11 +46618,36 @@
       <c r="G8">
         <v>19430</v>
       </c>
-      <c r="H8">
-        <v>19430</v>
-      </c>
       <c r="I8">
         <v>19430</v>
+      </c>
+      <c r="J8">
+        <v>19430</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="V14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="V15">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="V16">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="22:22">
+      <c r="V17">
+        <v>0.19489999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="22:22">
+      <c r="V18">
+        <v>1.8100000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="5:9">
@@ -46953,7 +46907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CC7230-6B12-8645-B731-B2F864FDB1F1}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="O74" sqref="O74"/>
     </sheetView>
   </sheetViews>
@@ -47430,7 +47384,7 @@
   <dimension ref="A2:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="130" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCCE6FF-DD94-714B-B0F7-CD7044030AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31A1A1-3211-D947-BC26-D8D34ECCD739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="5" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -46327,7 +46327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DFBF5B-8F6E-8045-8F81-355583BCEC4F}">
   <dimension ref="A2:V148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="137" zoomScaleNormal="66" workbookViewId="0">
+    <sheetView zoomScale="137" zoomScaleNormal="66" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
@@ -46907,8 +46907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CC7230-6B12-8645-B731-B2F864FDB1F1}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/测试/IPC性能.xlsx
+++ b/测试/IPC性能.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ctrlz/workSpace/openingreport-ldhai2023/测试/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF31A1A1-3211-D947-BC26-D8D34ECCD739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FF2466-535B-2B48-9EF6-027EE298A0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-4620" windowWidth="51200" windowHeight="28300" activeTab="6" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" activeTab="4" xr2:uid="{DA4805F4-04B1-CA43-9DDD-E0DA8EA5F629}"/>
   </bookViews>
   <sheets>
     <sheet name="qemu_ipc" sheetId="1" r:id="rId1"/>
@@ -45910,8 +45910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B948DF7F-45BB-DB43-912D-C43B27C012A9}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="134" workbookViewId="0">
-      <selection activeCell="U54" sqref="U54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -46907,7 +46907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43CC7230-6B12-8645-B731-B2F864FDB1F1}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="138" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
@@ -47383,7 +47383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A15DDD4-99DA-0A45-8092-0FE13BBCA208}">
   <dimension ref="A2:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
